--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3836.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3836.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3836</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Andre Dwayne Russell</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3270</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3276</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>23/04/2011</t>
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3287</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3296</t>
+          <t>3296</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +916,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>16/06/2011</t>
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1015,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>15/10/2011</t>
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3338</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3398</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1364,7 +1426,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>18/03/2012</t>
@@ -1372,7 +1433,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1424,7 +1485,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1476,7 +1537,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3404</t>
+          <t>3404</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1528,7 +1589,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3405</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1580,7 +1641,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1620,7 +1681,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>05/07/2012</t>
@@ -1628,7 +1688,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1668,7 +1728,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>07/07/2012</t>
@@ -1676,7 +1735,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1728,7 +1787,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1780,7 +1839,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1832,7 +1891,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1884,7 +1943,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1936,7 +1995,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3451</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1988,7 +2047,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2040,7 +2099,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2092,7 +2151,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3474</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2144,7 +2203,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3478</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2184,7 +2243,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>24/02/2013</t>
@@ -2192,7 +2250,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3480</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2244,7 +2302,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3598</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2296,7 +2354,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2348,7 +2406,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2400,7 +2458,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2452,7 +2510,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3728</t>
+          <t>3728</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2504,7 +2562,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3732</t>
+          <t>3732</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2556,7 +2614,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3736</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2608,7 +2666,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3740</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2660,7 +2718,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3742</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2712,7 +2770,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2764,7 +2822,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3757</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2804,7 +2862,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>24/02/2015</t>
@@ -2812,7 +2869,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3762</t>
+          <t>3762</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2864,7 +2921,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3766</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2916,7 +2973,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2968,7 +3025,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3788</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3020,7 +3077,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3072,7 +3129,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3852</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3124,7 +3181,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3164,7 +3221,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>31/05/2019</t>
@@ -3172,7 +3228,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3224,7 +3280,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3276,7 +3332,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3328,7 +3384,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3367,7 +3423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3389,7 +3445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3426,7 +3482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3463,7 +3519,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3270</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3500,7 +3556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3276</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3537,7 +3593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3287</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3574,7 +3630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3611,7 +3667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3296</t>
+          <t>3296</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3648,7 +3704,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3685,7 +3741,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3722,7 +3778,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3759,7 +3815,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3796,7 +3852,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3833,7 +3889,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3870,7 +3926,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3907,7 +3963,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3944,7 +4000,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3981,7 +4037,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3398</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4018,7 +4074,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4055,7 +4111,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4092,7 +4148,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3404</t>
+          <t>3404</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4129,7 +4185,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3405</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4166,7 +4222,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4203,7 +4259,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4240,7 +4296,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4277,7 +4333,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4314,7 +4370,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4351,7 +4407,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4388,7 +4444,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4425,7 +4481,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3451</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4462,7 +4518,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4499,7 +4555,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4536,7 +4592,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3474</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4573,7 +4629,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3478</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4610,7 +4666,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3480</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4647,7 +4703,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3598</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4684,7 +4740,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4721,7 +4777,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4758,7 +4814,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4795,7 +4851,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3728</t>
+          <t>3728</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4832,7 +4888,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3732</t>
+          <t>3732</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4869,7 +4925,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3736</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4906,7 +4962,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3740</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4943,7 +4999,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3742</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4980,7 +5036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5017,7 +5073,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3757</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5054,7 +5110,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3762</t>
+          <t>3762</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5091,7 +5147,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3766</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5128,7 +5184,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5165,7 +5221,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3788</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5202,7 +5258,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5239,7 +5295,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3852</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5276,7 +5332,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5313,7 +5369,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5350,7 +5406,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5387,7 +5443,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5424,7 +5480,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5450,6 +5506,541 @@
       <c r="G56" t="inlineStr">
         <is>
           <t>1/42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.86%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16.97%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3728</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3732</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3736</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13.11%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3740</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3742</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10.43%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3752</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.88%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3757</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13.55%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3762</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3766</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.40%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3788</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3793</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8.00%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3852</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4179</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5.49%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>9.91%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3836.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3836.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5626,15 +5627,466 @@
           <t>3728</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3732</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3736</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13.11%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3740</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3742</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10.43%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3752</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.88%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3757</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13.55%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3762</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3766</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.40%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3788</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3793</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8.00%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3852</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4179</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5.49%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>9.91%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3728</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5642,23 +6094,14 @@
           <t>3732</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>7</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5668,29 +6111,12 @@
           <t>3736</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>13.11%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5700,13 +6126,6 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5714,29 +6133,8 @@
           <t>3742</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10.43%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5744,29 +6142,8 @@
           <t>3752</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8.88%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5774,27 +6151,14 @@
           <t>3757</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>13.55%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -5804,17 +6168,12 @@
           <t>3762</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5822,23 +6181,14 @@
           <t>3766</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5848,27 +6198,14 @@
           <t>3775</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.40%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5880,13 +6217,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5894,29 +6224,8 @@
           <t>3793</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>8.00%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5926,13 +6235,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5942,13 +6244,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5956,15 +6251,14 @@
           <t>4304</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5974,27 +6268,14 @@
           <t>4312</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>7</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.49%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -6004,29 +6285,12 @@
           <t>4321</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>9.91%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6036,13 +6300,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3836.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3836.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -714,6 +712,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>23/04/2011</t>
@@ -917,6 +916,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>16/06/2011</t>
@@ -1016,6 +1016,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>15/10/2011</t>
@@ -1427,6 +1428,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>18/03/2012</t>
@@ -1682,6 +1684,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>05/07/2012</t>
@@ -1729,6 +1732,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>07/07/2012</t>
@@ -2244,6 +2248,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>24/02/2013</t>
@@ -2863,6 +2868,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>24/02/2015</t>
@@ -3222,6 +3228,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>31/05/2019</t>
@@ -5513,795 +5520,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3680</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.86%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3683</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>16.97%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3728</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3732</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3736</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>13.11%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3740</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3742</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10.43%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3752</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8.88%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3757</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>13.55%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3762</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3766</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3775</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.40%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3788</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3793</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>8.00%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3852</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4179</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4312</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.49%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>9.91%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3680</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3683</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3728</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3732</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3736</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3740</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3742</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3752</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3757</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3762</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3766</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3775</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3788</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3793</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3852</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4179</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4312</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>